--- a/biology/Médecine/1228_en_santé_et_médecine/1228_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1228_en_santé_et_médecine/1228_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1228_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1228_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1228 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1228_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1228_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,22 +523,24 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'École de médecine de Toulouse[1].
-« Élisabeth de Hongrie dédie à saint François l'hôpital qu'elle fonde à Marbourg, en Thuringe, pour les pauvres et les malades[2] ».
-Une léproserie fondée par les hospitaliers est attestée à Vétheuil, dans le Vexin[3].
-À Saint-Germain-en-Laye, dans l'actuel département des Yvelines, fondation d'une maison-Dieu  destinée à l'accueil des voyageurs et des « pauvres habitants et trépassants de la ville[4] ».
-Une maison-Dieu est mentionnée à Liverdun, près de Nancy en Lorraine, établissement qui sera refondé sous le nom d'hôpital en  1422 par Henri de Ville, évêque de Toul[5],[6].
-Dans le comté de Flandre, à Aire, actuelle rue Saint-Omer, fondation de l'hôpital Saint-Jean-Baptiste par Adam, évêque de Thérouanne[7].
-Considérable agrandissement, par une donation de Rostaing de Posquières et Aigline de Castries, de l'hôpital Saint-Éloi de Montpellier, établissement voué à l'accueil « des pauvres malades et des passants » et qui est à l'une des origines de l'actuel centre hospitalier universitaire[8].
-L'hôpital du Saint-Esprit est mentionné pour la première fois à Schwäbisch Hall, ville libre du Saint-Empire, en Souabe[9].
-À Lechlade, dans le comté de Gloucester, fondation par  Isabelle de Mortimer de l'hôpital Saint-Jean-Baptiste, confié « à un prieur et à six prêtres et frères et sœurs lais », des augustins voués à l'accueil « des pauvres et des malades[10] ».
-En Angleterre, à Salisbury, au gué sur l'Avon, près de l'actuel pont d'Harnham (en), l'évêque Robert de Bingham (en) fonde l'hôpital Saint-Nicolas, et le consacre aux soins « des malades et des infirmes[11] ».
-Avant 1228 : fondation de l'hôpital Sainte-Anne à Ripon, dans le Yorkshire du Nord en Angleterre[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'École de médecine de Toulouse.
+« Élisabeth de Hongrie dédie à saint François l'hôpital qu'elle fonde à Marbourg, en Thuringe, pour les pauvres et les malades ».
+Une léproserie fondée par les hospitaliers est attestée à Vétheuil, dans le Vexin.
+À Saint-Germain-en-Laye, dans l'actuel département des Yvelines, fondation d'une maison-Dieu  destinée à l'accueil des voyageurs et des « pauvres habitants et trépassants de la ville ».
+Une maison-Dieu est mentionnée à Liverdun, près de Nancy en Lorraine, établissement qui sera refondé sous le nom d'hôpital en  1422 par Henri de Ville, évêque de Toul,.
+Dans le comté de Flandre, à Aire, actuelle rue Saint-Omer, fondation de l'hôpital Saint-Jean-Baptiste par Adam, évêque de Thérouanne.
+Considérable agrandissement, par une donation de Rostaing de Posquières et Aigline de Castries, de l'hôpital Saint-Éloi de Montpellier, établissement voué à l'accueil « des pauvres malades et des passants » et qui est à l'une des origines de l'actuel centre hospitalier universitaire.
+L'hôpital du Saint-Esprit est mentionné pour la première fois à Schwäbisch Hall, ville libre du Saint-Empire, en Souabe.
+À Lechlade, dans le comté de Gloucester, fondation par  Isabelle de Mortimer de l'hôpital Saint-Jean-Baptiste, confié « à un prieur et à six prêtres et frères et sœurs lais », des augustins voués à l'accueil « des pauvres et des malades ».
+En Angleterre, à Salisbury, au gué sur l'Avon, près de l'actuel pont d'Harnham (en), l'évêque Robert de Bingham (en) fonde l'hôpital Saint-Nicolas, et le consacre aux soins « des malades et des infirmes ».
+Avant 1228 : fondation de l'hôpital Sainte-Anne à Ripon, dans le Yorkshire du Nord en Angleterre.
 1228-1229
-À Divrigi, dans la région de Sivas en Anatolie, construction du Darush-shifa (« maison de la guérison »), hôpital attenant à la grande mosquée, fondé par Turan Melik, fille de Behram Shah et femme d'Hüsameddin Ahmed, fils de Suleyman[13].
-Fondation de l'hôpital de la Biloque, à Gand[14].</t>
+À Divrigi, dans la région de Sivas en Anatolie, construction du Darush-shifa (« maison de la guérison »), hôpital attenant à la grande mosquée, fondé par Turan Melik, fille de Behram Shah et femme d'Hüsameddin Ahmed, fils de Suleyman.
+Fondation de l'hôpital de la Biloque, à Gand.</t>
         </is>
       </c>
     </row>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1228_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1228_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,11 +568,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ivette de Huy (née vers 1157), une des premières béguines ; veuve vers 1181, elle se consacre au soin des lépreux à Huy dans le diocèse de Liège[15].
-Muwaffaq Al-Din Yaqub Ben Saklan (né à une date inconnue), médecin melchite « qui exerçait […] à Jérusalem dans les années 1180[16] ».
-Zhang Congzheng (né en 1156), médecin chinois, auteur du traité des Soins des confucianistes à leurs parents, fondateur de l'« école de l'attaque et de la purgation[17] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ivette de Huy (née vers 1157), une des premières béguines ; veuve vers 1181, elle se consacre au soin des lépreux à Huy dans le diocèse de Liège.
+Muwaffaq Al-Din Yaqub Ben Saklan (né à une date inconnue), médecin melchite « qui exerçait […] à Jérusalem dans les années 1180 ».
+Zhang Congzheng (né en 1156), médecin chinois, auteur du traité des Soins des confucianistes à leurs parents, fondateur de l'« école de l'attaque et de la purgation ».</t>
         </is>
       </c>
     </row>
